--- a/storage/app/imports/JORequestForm (1).xlsx
+++ b/storage/app/imports/JORequestForm (1).xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Systems\new_purchasing\storage\app\upload_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="JOR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">JOR!$A$1:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">JOR!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Central Negros Power Reliability, Inc.</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">JO Request to: </t>
   </si>
   <si>
-    <t>Bacolod Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Duration:</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Requested By:</t>
   </si>
   <si>
-    <t>Iris Sixto</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Purpose:</t>
   </si>
   <si>
@@ -95,40 +89,6 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Installation of Sliding Screen Window and Screen Doors at Board Room and Pantry Bacolod Office.</t>
-  </si>
-  <si>
-    <t>Supply of materials, equipment, manpower and technical experties for the following scope of works:</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Installation of 1-unit of swing screen door w/ accessories at Pantry area.
-Size: 91cm x210cm</t>
-  </si>
-  <si>
-    <t>Installation of 1-set of screen sliding window at Pantry area.
-Size: 4m width x1.01m high.</t>
-  </si>
-  <si>
-    <t>Installation of 1-set of screen sliding window at Board room.
-Size: 2.40m  width x 1.18m High w/ existing sliding guide and frames.</t>
-  </si>
-  <si>
-    <t>Repair of 1- unit of swing screen door at Pantry area.
-Size: 77cmx208cm.</t>
-  </si>
-  <si>
-    <t>ADM-137-2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">General Description: </t>
   </si>
   <si>
@@ -150,52 +110,10 @@
     <t>Item Description</t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>roll/s</t>
-  </si>
-  <si>
-    <t>bag/s</t>
-  </si>
-  <si>
-    <t>pack/s</t>
-  </si>
-  <si>
-    <t>pn1001</t>
-  </si>
-  <si>
-    <t>pn1002</t>
-  </si>
-  <si>
-    <t>pn1003</t>
-  </si>
-  <si>
-    <t>pn1004</t>
-  </si>
-  <si>
-    <t>item 1</t>
-  </si>
-  <si>
-    <t>item 2</t>
-  </si>
-  <si>
-    <t>item 3</t>
-  </si>
-  <si>
-    <t>item 4</t>
-  </si>
-  <si>
-    <t>Trial Data</t>
-  </si>
-  <si>
-    <t>Trial Notes</t>
-  </si>
-  <si>
-    <t>12 days</t>
-  </si>
-  <si>
-    <t>department11</t>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Project/Activity:</t>
   </si>
 </sst>
 </file>
@@ -242,13 +160,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -270,6 +181,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,25 +359,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -467,38 +388,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,31 +524,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -546,13 +548,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,80 +572,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +615,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,10 +916,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,14 +953,14 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -1026,14 +968,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
@@ -1041,14 +983,14 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -1056,497 +998,357 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38">
-        <v>45574</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="39">
-        <v>45575</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="39">
-        <v>45576</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="82"/>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="B15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="59" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="16">
-        <v>200</v>
-      </c>
-      <c r="J15" s="42">
-        <v>200</v>
-      </c>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="16">
-        <v>300</v>
-      </c>
-      <c r="J16" s="42">
-        <v>300</v>
-      </c>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="16">
-        <v>400</v>
-      </c>
-      <c r="J17" s="42">
-        <v>400</v>
-      </c>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>4</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="16">
-        <v>500</v>
-      </c>
-      <c r="J18" s="42">
-        <v>500</v>
-      </c>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>5</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="15">
-        <v>2</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="16">
-        <v>600</v>
-      </c>
-      <c r="J19" s="42">
-        <v>600</v>
-      </c>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>1</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="27">
-        <v>45585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>2</v>
-      </c>
-      <c r="B23" s="18">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="17">
-        <v>2</v>
-      </c>
-      <c r="K23" s="27">
-        <v>45586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>3</v>
-      </c>
-      <c r="B24" s="18">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="17">
-        <v>3</v>
-      </c>
-      <c r="K24" s="27">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>4</v>
-      </c>
-      <c r="B25" s="14">
-        <v>4</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="15">
-        <v>4</v>
-      </c>
-      <c r="K25" s="27">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:K6"/>
+  <mergeCells count="34">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="I8:K8"/>
@@ -1558,7 +1360,25 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
